--- a/excel/capsule.xlsx
+++ b/excel/capsule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="12180"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,18 +15,523 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="164">
+  <si>
+    <t>太空舱id</t>
+  </si>
+  <si>
+    <t>太空舱名称</t>
+  </si>
+  <si>
+    <t>初始拥有设施</t>
+  </si>
+  <si>
+    <t>建造花费</t>
+  </si>
+  <si>
+    <t>电量消耗</t>
+  </si>
+  <si>
+    <t>水量消耗</t>
+  </si>
+  <si>
+    <t>氧气消耗</t>
+  </si>
+  <si>
+    <t>建造限制</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>tid</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>original</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>ecost</t>
+  </si>
+  <si>
+    <t>wcost</t>
+  </si>
+  <si>
+    <t>ocost</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>01001</t>
+  </si>
+  <si>
+    <t>紧凑型太空舱101号</t>
+  </si>
+  <si>
+    <t>[010101]</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>01002</t>
+  </si>
+  <si>
+    <t>紧凑型太空舱102号</t>
+  </si>
+  <si>
+    <t>01003</t>
+  </si>
+  <si>
+    <t>紧凑型太空舱103号</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>01004</t>
+  </si>
+  <si>
+    <t>紧凑型太空舱104号</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>01005</t>
+  </si>
+  <si>
+    <t>紧凑型太空舱105号</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>01006</t>
+  </si>
+  <si>
+    <t>紧凑型太空舱106号</t>
+  </si>
+  <si>
+    <t>01007</t>
+  </si>
+  <si>
+    <t>紧凑型太空舱107号</t>
+  </si>
+  <si>
+    <t>01008</t>
+  </si>
+  <si>
+    <t>紧凑型太空舱108号</t>
+  </si>
+  <si>
+    <t>01009</t>
+  </si>
+  <si>
+    <t>紧凑型太空舱109号</t>
+  </si>
+  <si>
+    <t>01010</t>
+  </si>
+  <si>
+    <t>紧凑型太空舱110号</t>
+  </si>
+  <si>
+    <t>01011</t>
+  </si>
+  <si>
+    <t>紧凑型太空舱111号</t>
+  </si>
+  <si>
+    <t>01012</t>
+  </si>
+  <si>
+    <t>紧凑型太空舱112号</t>
+  </si>
+  <si>
+    <t>02001</t>
+  </si>
+  <si>
+    <t>核心舱</t>
+  </si>
+  <si>
+    <t>03001</t>
+  </si>
+  <si>
+    <t>能源舱1号</t>
+  </si>
+  <si>
+    <t>03002</t>
+  </si>
+  <si>
+    <t>能源舱2号</t>
+  </si>
+  <si>
+    <t>04001</t>
+  </si>
+  <si>
+    <t>员工舱1号</t>
+  </si>
+  <si>
+    <t>04002</t>
+  </si>
+  <si>
+    <t>员工舱2号</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>05001</t>
+  </si>
+  <si>
+    <t>种植舱1号</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>05002</t>
+  </si>
+  <si>
+    <t>种植舱2号</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>05003</t>
+  </si>
+  <si>
+    <t>种植舱3号</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>05004</t>
+  </si>
+  <si>
+    <t>种植舱4号</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>06001</t>
+  </si>
+  <si>
+    <t>医护舱</t>
+  </si>
+  <si>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>07001</t>
+  </si>
+  <si>
+    <t>维修仓</t>
+  </si>
+  <si>
+    <t>80000</t>
+  </si>
+  <si>
+    <t>08001</t>
+  </si>
+  <si>
+    <t>公共休息舱</t>
+  </si>
+  <si>
+    <t>09001</t>
+  </si>
+  <si>
+    <t>锻炼舱</t>
+  </si>
+  <si>
+    <t>120000</t>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>餐厅舱</t>
+  </si>
+  <si>
+    <t>10002</t>
+  </si>
+  <si>
+    <t>高级餐厅舱</t>
+  </si>
+  <si>
+    <t>150000</t>
+  </si>
+  <si>
+    <t>11001</t>
+  </si>
+  <si>
+    <t>商店舱</t>
+  </si>
+  <si>
+    <t>12001</t>
+  </si>
+  <si>
+    <t>影音舱</t>
+  </si>
+  <si>
+    <t>200000</t>
+  </si>
+  <si>
+    <t>13001</t>
+  </si>
+  <si>
+    <t>标准型太空舱201</t>
+  </si>
+  <si>
+    <t>13002</t>
+  </si>
+  <si>
+    <t>标准型太空舱202</t>
+  </si>
+  <si>
+    <t>13003</t>
+  </si>
+  <si>
+    <t>标准型太空舱203</t>
+  </si>
+  <si>
+    <t>13004</t>
+  </si>
+  <si>
+    <t>标准型太空舱204</t>
+  </si>
+  <si>
+    <t>13005</t>
+  </si>
+  <si>
+    <t>标准型太空舱205</t>
+  </si>
+  <si>
+    <t>13006</t>
+  </si>
+  <si>
+    <t>标准型太空舱206</t>
+  </si>
+  <si>
+    <t>13007</t>
+  </si>
+  <si>
+    <t>标准型太空舱207</t>
+  </si>
+  <si>
+    <t>13008</t>
+  </si>
+  <si>
+    <t>标准型太空舱208</t>
+  </si>
+  <si>
+    <t>13009</t>
+  </si>
+  <si>
+    <t>标准型太空舱209</t>
+  </si>
+  <si>
+    <t>13010</t>
+  </si>
+  <si>
+    <t>标准型太空舱210</t>
+  </si>
+  <si>
+    <t>13011</t>
+  </si>
+  <si>
+    <t>标准型太空舱211</t>
+  </si>
+  <si>
+    <t>13012</t>
+  </si>
+  <si>
+    <t>标准型太空舱212</t>
+  </si>
+  <si>
+    <t>14001</t>
+  </si>
+  <si>
+    <t>套间型太空舱301</t>
+  </si>
+  <si>
+    <t>14002</t>
+  </si>
+  <si>
+    <t>套间型太空舱302</t>
+  </si>
+  <si>
+    <t>14003</t>
+  </si>
+  <si>
+    <t>套间型太空舱303</t>
+  </si>
+  <si>
+    <t>14004</t>
+  </si>
+  <si>
+    <t>套间型太空舱304</t>
+  </si>
+  <si>
+    <t>14005</t>
+  </si>
+  <si>
+    <t>套间型太空舱305</t>
+  </si>
+  <si>
+    <t>14006</t>
+  </si>
+  <si>
+    <t>套间型太空舱306</t>
+  </si>
+  <si>
+    <t>14007</t>
+  </si>
+  <si>
+    <t>套间型太空舱307</t>
+  </si>
+  <si>
+    <t>14008</t>
+  </si>
+  <si>
+    <t>套间型太空舱308</t>
+  </si>
+  <si>
+    <t>14009</t>
+  </si>
+  <si>
+    <t>套间型太空舱309</t>
+  </si>
+  <si>
+    <t>14010</t>
+  </si>
+  <si>
+    <t>套间型太空舱310</t>
+  </si>
+  <si>
+    <t>14011</t>
+  </si>
+  <si>
+    <t>套间型太空舱311</t>
+  </si>
+  <si>
+    <t>14012</t>
+  </si>
+  <si>
+    <t>套间型太空舱312</t>
+  </si>
+  <si>
+    <t>15001</t>
+  </si>
+  <si>
+    <t>豪华型太空舱401</t>
+  </si>
+  <si>
+    <t>15002</t>
+  </si>
+  <si>
+    <t>豪华型太空舱402</t>
+  </si>
+  <si>
+    <t>15003</t>
+  </si>
+  <si>
+    <t>豪华型太空舱403</t>
+  </si>
+  <si>
+    <t>15004</t>
+  </si>
+  <si>
+    <t>豪华型太空舱404</t>
+  </si>
+  <si>
+    <t>15005</t>
+  </si>
+  <si>
+    <t>豪华型太空舱405</t>
+  </si>
+  <si>
+    <t>15006</t>
+  </si>
+  <si>
+    <t>豪华型太空舱406</t>
+  </si>
+  <si>
+    <t>16001</t>
+  </si>
+  <si>
+    <t>货运接引舱1号</t>
+  </si>
+  <si>
+    <t>17001</t>
+  </si>
+  <si>
+    <t>客运接引舱1号</t>
+  </si>
+  <si>
+    <t>18001</t>
+  </si>
+  <si>
+    <t>漫游舱1号</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -41,9 +546,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -54,8 +566,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -76,18 +619,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -99,48 +642,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,29 +658,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,49 +682,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,7 +808,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,25 +838,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,91 +862,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,6 +873,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -416,22 +945,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -439,8 +953,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,182 +973,164 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -985,14 +1481,931 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="11.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="19.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
+    <col min="5" max="8" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19" customHeight="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="19" customHeight="1" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="19" customHeight="1" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" ht="19" customHeight="1" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" ht="19" customHeight="1" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" ht="19" customHeight="1" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" ht="19" customHeight="1" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" ht="19" customHeight="1" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" ht="19" customHeight="1" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" ht="19" customHeight="1" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" ht="19" customHeight="1" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" ht="19" customHeight="1" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" ht="19" customHeight="1" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" ht="19" customHeight="1" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" ht="19" customHeight="1" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" ht="19" customHeight="1" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" ht="19" customHeight="1" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" ht="19" customHeight="1" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" ht="19" customHeight="1" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" ht="19" customHeight="1" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" ht="19" customHeight="1" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" ht="19" customHeight="1" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" ht="19" customHeight="1" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" ht="19" customHeight="1" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" ht="19" customHeight="1" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" ht="19" customHeight="1" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" ht="19" customHeight="1" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" ht="19" customHeight="1" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" ht="19" customHeight="1" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" ht="19" customHeight="1" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" ht="19" customHeight="1" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" ht="19" customHeight="1" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" ht="19" customHeight="1" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" ht="19" customHeight="1" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" ht="19" customHeight="1" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" ht="19" customHeight="1" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" ht="19" customHeight="1" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" ht="19" customHeight="1" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" ht="19" customHeight="1" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" ht="19" customHeight="1" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" ht="19" customHeight="1" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" ht="19" customHeight="1" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" ht="21" customHeight="1" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" ht="21" customHeight="1" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" ht="18" customHeight="1" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" ht="18" customHeight="1" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" ht="18" customHeight="1" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" ht="18" customHeight="1" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" ht="18" customHeight="1" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" ht="18" customHeight="1" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" ht="18" customHeight="1" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" ht="18" customHeight="1" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" ht="18" customHeight="1" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" ht="18" customHeight="1" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B54" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" ht="18" customHeight="1" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" ht="18" customHeight="1" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B56" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" ht="18" customHeight="1" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B57" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" ht="18" customHeight="1" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B58" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" ht="18" customHeight="1" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B59" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" ht="18" customHeight="1" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B60" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" ht="18" customHeight="1" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B61" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" ht="21" customHeight="1" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B62" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" ht="21" customHeight="1" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B63" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" ht="21" customHeight="1" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B64" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" ht="21" customHeight="1" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B65" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" ht="21" customHeight="1"/>
+    <row r="67" ht="21" customHeight="1"/>
+    <row r="68" ht="21" customHeight="1"/>
+    <row r="69" ht="21" customHeight="1"/>
+    <row r="70" ht="21" customHeight="1"/>
+    <row r="71" ht="21" customHeight="1"/>
+    <row r="72" ht="21" customHeight="1"/>
+    <row r="73" ht="21" customHeight="1"/>
+    <row r="74" ht="21" customHeight="1"/>
+    <row r="75" ht="21" customHeight="1"/>
+    <row r="76" ht="21" customHeight="1"/>
+    <row r="77" ht="21" customHeight="1"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/excel/capsule.xlsx
+++ b/excel/capsule.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="182">
   <si>
     <t>太空舱id</t>
   </si>
@@ -39,6 +39,9 @@
     <t>氧气消耗</t>
   </si>
   <si>
+    <t>修建时间</t>
+  </si>
+  <si>
     <t>建造限制</t>
   </si>
   <si>
@@ -69,6 +72,9 @@
     <t>ocost</t>
   </si>
   <si>
+    <t>time</t>
+  </si>
+  <si>
     <t>level</t>
   </si>
   <si>
@@ -90,6 +96,12 @@
     <t>紧凑型太空舱102号</t>
   </si>
   <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>01003</t>
   </si>
   <si>
@@ -99,66 +111,120 @@
     <t>1000</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>01004</t>
   </si>
   <si>
     <t>紧凑型太空舱104号</t>
   </si>
   <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>01005</t>
+  </si>
+  <si>
+    <t>紧凑型太空舱105号</t>
+  </si>
+  <si>
     <t>3000</t>
   </si>
   <si>
-    <t>01005</t>
-  </si>
-  <si>
-    <t>紧凑型太空舱105号</t>
+    <t>60</t>
+  </si>
+  <si>
+    <t>01006</t>
+  </si>
+  <si>
+    <t>紧凑型太空舱106号</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>01007</t>
+  </si>
+  <si>
+    <t>紧凑型太空舱107号</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>180</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>01006</t>
-  </si>
-  <si>
-    <t>紧凑型太空舱106号</t>
-  </si>
-  <si>
-    <t>01007</t>
-  </si>
-  <si>
-    <t>紧凑型太空舱107号</t>
-  </si>
-  <si>
     <t>01008</t>
   </si>
   <si>
     <t>紧凑型太空舱108号</t>
   </si>
   <si>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
     <t>01009</t>
   </si>
   <si>
     <t>紧凑型太空舱109号</t>
   </si>
   <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
     <t>01010</t>
   </si>
   <si>
     <t>紧凑型太空舱110号</t>
   </si>
   <si>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
     <t>01011</t>
   </si>
   <si>
     <t>紧凑型太空舱111号</t>
   </si>
   <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
     <t>01012</t>
   </si>
   <si>
     <t>紧凑型太空舱112号</t>
   </si>
   <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
     <t>02001</t>
   </si>
   <si>
@@ -219,18 +285,12 @@
     <t>种植舱2号</t>
   </si>
   <si>
-    <t>10000</t>
-  </si>
-  <si>
     <t>05003</t>
   </si>
   <si>
     <t>种植舱3号</t>
   </si>
   <si>
-    <t>30000</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -250,12 +310,6 @@
   </si>
   <si>
     <t>医护舱</t>
-  </si>
-  <si>
-    <t>8000</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
   <si>
     <t>07001</t>
@@ -517,8 +571,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -530,30 +584,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,7 +607,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -589,23 +621,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,14 +630,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -628,15 +637,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,11 +658,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -672,6 +673,59 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -682,31 +736,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,49 +892,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,97 +916,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,21 +927,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -909,8 +948,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -930,13 +969,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,23 +996,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -981,10 +1035,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -993,133 +1047,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1481,24 +1535,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M23" sqref="M23"/>
+      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="19.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
-    <col min="5" max="8" width="9" style="1"/>
+    <col min="5" max="9" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19" customHeight="1" spans="1:8">
+    <row r="1" ht="19" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1523,874 +1577,937 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" ht="19" customHeight="1" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="19" customHeight="1" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" ht="19" customHeight="1" spans="1:8">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="19" customHeight="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" ht="19" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" ht="19" customHeight="1" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" ht="19" customHeight="1" spans="1:8">
       <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" ht="19" customHeight="1" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" ht="19" customHeight="1" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" ht="19" customHeight="1" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" ht="19" customHeight="1" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" ht="19" customHeight="1" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" ht="19" customHeight="1" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" ht="19" customHeight="1" spans="1:8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" ht="19" customHeight="1" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" ht="19" customHeight="1" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" ht="19" customHeight="1" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" ht="19" customHeight="1" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" ht="19" customHeight="1" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" ht="19" customHeight="1" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" ht="19" customHeight="1" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" ht="19" customHeight="1" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" ht="19" customHeight="1" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" ht="19" customHeight="1" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" ht="19" customHeight="1" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>32</v>
+        <v>68</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" ht="19" customHeight="1" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" ht="19" customHeight="1" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" ht="19" customHeight="1" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" ht="19" customHeight="1" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" ht="19" customHeight="1" spans="1:8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" ht="19" customHeight="1" spans="1:9">
       <c r="A20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" ht="19" customHeight="1" spans="1:9">
+      <c r="A21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" ht="19" customHeight="1" spans="1:9">
+      <c r="A22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" ht="19" customHeight="1" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" ht="19" customHeight="1" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" ht="19" customHeight="1" spans="1:9">
+      <c r="A23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" ht="19" customHeight="1" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" ht="19" customHeight="1" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" ht="19" customHeight="1" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" ht="19" customHeight="1" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" ht="19" customHeight="1" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>32</v>
+        <v>85</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" ht="19" customHeight="1" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" ht="19" customHeight="1" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" ht="19" customHeight="1" spans="1:7">
       <c r="A28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B28" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="G28" s="1" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" ht="19" customHeight="1" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" ht="19" customHeight="1" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" ht="19" customHeight="1" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="E31" s="1" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" ht="19" customHeight="1" spans="1:7">
       <c r="A32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B32" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="33" ht="19" customHeight="1" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" ht="19" customHeight="1" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" ht="19" customHeight="1" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" ht="19" customHeight="1" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" ht="19" customHeight="1" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" ht="19" customHeight="1" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" ht="19" customHeight="1" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" ht="19" customHeight="1" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" ht="19" customHeight="1" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" ht="19" customHeight="1" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" ht="21" customHeight="1" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" ht="21" customHeight="1" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" ht="18" customHeight="1" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" ht="18" customHeight="1" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" ht="18" customHeight="1" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" ht="18" customHeight="1" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B48" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" ht="18" customHeight="1" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="B49" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" ht="18" customHeight="1" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" ht="18" customHeight="1" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="B51" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" ht="18" customHeight="1" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="B52" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" ht="18" customHeight="1" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" ht="18" customHeight="1" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="B54" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" ht="18" customHeight="1" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="B55" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" ht="18" customHeight="1" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="B56" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" ht="18" customHeight="1" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="B57" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" ht="18" customHeight="1" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="B58" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" ht="18" customHeight="1" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="B59" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" ht="18" customHeight="1" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="B60" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" ht="18" customHeight="1" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="B61" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" ht="21" customHeight="1" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="B62" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" ht="21" customHeight="1" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="B63" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" ht="21" customHeight="1" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="B64" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65" ht="21" customHeight="1" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="B65" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" ht="21" customHeight="1"/>
